--- a/biology/Zoologie/Anthocharis_cethura/Anthocharis_cethura.xlsx
+++ b/biology/Zoologie/Anthocharis_cethura/Anthocharis_cethura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthocharis cethura est une espèce de lépidoptères (papillons) de la famille des Pieridae de la sous-famille des Pierinae et du genre Anthocharis.
 </t>
@@ -511,86 +523,90 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Anthocharis cethura a été nommé par Cajetan Freiherr von Felder et Rudolf Felder en 1865.
-Synonymes : Anthocharis morrisoni Edwards, 1881 ; Anthocharis catalina Meadows, 1937[1].
-Noms vernaculaires
-Anthocharis cethura se nomme Desert Orange-tip en anglais[1].
-Sous-espèces
-Anthocharis cethura cethura
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis cethura a été nommé par Cajetan Freiherr von Felder et Rudolf Felder en 1865.
+Synonymes : Anthocharis morrisoni Edwards, 1881 ; Anthocharis catalina Meadows, 1937.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis cethura se nomme Desert Orange-tip en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anthocharis cethura cethura
 Anthocharis cethura catalina
 Anthocharis cethura bajacalifornica Emmel, Emmel &amp; Mattoon, 1998
 Anthocharis cethura pima Pima Orangetip présent en Arizona.
-Anthocharis cethura  mojaveensis  Emmel, Emmel &amp; Mattoon, 1998[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Anthocharis_cethura</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anthocharis_cethura</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon blanc de taille moyenne (d'une envergure de 25 à 40 mm) présente un dimorphisme sexuel très marqué : l'apex des ailes antérieures du mâle est marqué de marron et centré d'une large tache orange qui, chez la femelle, elle est moins marquée ou absentela femelle est blanche avec cette même bande à l'apex.Le revers des ailes postérieures est marqué de vert[3].
-Chenille
-Les œufs de couleur jaune deviennent orange après au bout d'une journée. La chenille d'abord de couleur crème se marque de points bleu et d'annelures qui passent du vert au jaune[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anthocharis_cethura</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anthocharis_cethura</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une seule génération annuelle, très tôt au début du printemps[2].
-Il hiverne dans sa chrysalide, au stade nymphal. Il peut s'écouler plusieurs années avant l'émergence de l'imago, jusqu'à 10 ans[3],[2].
-Plantes hôtes
-Les plantes-hôtes de sa chenille sont des Descurainia (Brassicaceae) dont Descurainia pinnata, Caulanthus lasiophyllum var. utahensis et Streptanthella longirostris[1],[2].
-</t>
+Anthocharis cethura  mojaveensis  Emmel, Emmel &amp; Mattoon, 1998.</t>
         </is>
       </c>
     </row>
@@ -615,16 +631,233 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon blanc de taille moyenne (d'une envergure de 25 à 40 mm) présente un dimorphisme sexuel très marqué : l'apex des ailes antérieures du mâle est marqué de marron et centré d'une large tache orange qui, chez la femelle, elle est moins marquée ou absentela femelle est blanche avec cette même bande à l'apex.Le revers des ailes postérieures est marqué de vert.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs de couleur jaune deviennent orange après au bout d'une journée. La chenille d'abord de couleur crème se marque de points bleu et d'annelures qui passent du vert au jaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une seule génération annuelle, très tôt au début du printemps.
+Il hiverne dans sa chrysalide, au stade nymphal. Il peut s'écouler plusieurs années avant l'émergence de l'imago, jusqu'à 10 ans,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes-hôtes de sa chenille sont des Descurainia (Brassicaceae) dont Descurainia pinnata, Caulanthus lasiophyllum var. utahensis et Streptanthella longirostris,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthocharis cethura est présent en Amérique du Nord, sur la côte ouest, en Nevada, ouest de l'Utah, Arizona, Californie et Basse-Californie jusqu'au Mexique[1],[3],[2].
-Biotope
-Il ne réside que dans les déserts des Montagnes Rocheuses.
-Protection
-Anthocharis cethura catalina présente uniquement dans l'ile Santa Catalina du sud de la Californie est protégée[3]. Les autres sous-espèces n'ont pas de statut de protection particulier
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis cethura est présent en Amérique du Nord, sur la côte ouest, en Nevada, ouest de l'Utah, Arizona, Californie et Basse-Californie jusqu'au Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne réside que dans les déserts des Montagnes Rocheuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_cethura</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis cethura catalina présente uniquement dans l'ile Santa Catalina du sud de la Californie est protégée. Les autres sous-espèces n'ont pas de statut de protection particulier
 </t>
         </is>
       </c>
